--- a/Export/template.xlsx
+++ b/Export/template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\redist\C++_MFC\Note Series\Export\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF367E59-D7FC-44CC-8F01-17FEE95724E0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="6060" yWindow="1215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -63,13 +64,13 @@
     <t>/d26</t>
   </si>
   <si>
-    <t>/d28</t>
+    <t>/d20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -201,6 +202,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -215,15 +225,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,11 +505,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:H7"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,67 +523,67 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="3"/>
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
     <row r="5" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="10"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="8">
